--- a/ComplianceReport.xlsx
+++ b/ComplianceReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compliance\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cr01401\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4E2C8-7010-4222-A991-AF0F431B4A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9713217-F52E-4BF8-B652-B5439A0CDF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
   <si>
     <t>Target system user name</t>
   </si>
@@ -271,6 +271,24 @@
   </si>
   <si>
     <t>Automatic 5</t>
+  </si>
+  <si>
+    <t>Safe_Cyberark</t>
+  </si>
+  <si>
+    <t>CyberArk</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>192.168.100.51</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -789,7 +807,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,13 +817,16 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1268,45 +1289,45 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>45342.681087962963</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>45348.681122685186</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1350,84 +1371,84 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="5">
         <v>45342.653425925928</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>45253.690162037034</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>45657.696319444447</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>45253.696319444447</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1594,45 +1615,45 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>45340.441921296297</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <v>45250.441921296297</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1676,45 +1697,45 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>45368.44394675926</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="5">
         <v>45250.44394675926</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1741,7 +1762,7 @@
       <c r="H14" s="5">
         <v>45340.44462962963</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -1758,47 +1779,47 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>45341.681759259256</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="5">
         <v>45253.681759259256</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1887,47 +1908,47 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5">
         <v>45401.595023148147</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="5">
         <v>45336.595034722224</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -2012,45 +2033,97 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <v>45337.01425925926</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="5">
         <v>45253.69835648148</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2087,10 +2160,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2103,10 +2176,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2119,10 +2192,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2135,10 +2208,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2151,10 +2224,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
